--- a/products/manuscript/supplementary_materials/Supplementary Data Table 5.xlsx
+++ b/products/manuscript/supplementary_materials/Supplementary Data Table 5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Desktop/GCMP/Supp_Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Documents/OSUDocs/Projects/Disease_LHS/GCMP_Global_Disease/products/manuscript/supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86009FC0-6A4F-324A-BFFA-30DB9161D32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF17D8EF-941F-E848-8F3F-7165198625F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="780" windowWidth="23260" windowHeight="12580" xr2:uid="{635964DC-1275-F24E-A533-4EEDB34ABDB9}"/>
   </bookViews>
@@ -189,7 +189,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PGLS correlations between Endozoicomonas  relative abundance and host disease prevalence. </t>
+      <t xml:space="preserve">PGLS correlations between Endozoicomonas relative abundance and host disease prevalence. </t>
     </r>
     <r>
       <rPr>

--- a/products/manuscript/supplementary_materials/Supplementary Data Table 5.xlsx
+++ b/products/manuscript/supplementary_materials/Supplementary Data Table 5.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Documents/OSUDocs/Projects/Disease_LHS/GCMP_Global_Disease/products/manuscript/supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E855811D-7F99-0045-878A-2FB99B34D182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10A2B39-45BA-7E45-9EC7-9920E900F015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="620" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{635964DC-1275-F24E-A533-4EEDB34ABDB9}"/>
+    <workbookView xWindow="5540" yWindow="620" windowWidth="23260" windowHeight="12580" xr2:uid="{635964DC-1275-F24E-A533-4EEDB34ABDB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 5a" sheetId="1" r:id="rId1"/>
     <sheet name="Table 5b" sheetId="2" r:id="rId2"/>
     <sheet name="Table 5c" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -442,132 +442,10 @@
     <t>kappa : 0.299510024338522 (95% CI  NA  -  0.996892316291648 )</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PGLS correlations between </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Endozoicomonas</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative abundance and host disease prevalence with potential confounding factors, zero relative abundance counts of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Endozoicomonas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">excluded. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Results generated from the PGLS analysis conducted between Endozoicomonas and disease prevalence filtered by samples in the tissue. The x_trait(s) column was always filtered to Endozoicomonas, and included depth, temperature, extent of turf algal content, latitude and observed species richness, while pec_dis was always run for the y_trait. Samples were filtered to include those only in the tissue compartment. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum liklelihood (ML) (see Supplementary Data Table 12 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models run with each alpha diversity variable in the tissue compartment. </t>
-    </r>
-  </si>
-  <si>
     <t>Supplementary Data Table 5c</t>
   </si>
   <si>
     <t>Supplementary Data Table 5b</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PGLS correlations between </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Endozoicomonas</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative abundance and host disease prevalence with potential confounding factors, zero relative abundance counts of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Endozoicomonas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">included. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Results generated from the PGLS analysis conducted between Endozoicomonas and disease prevalence filtered by samples in the tissue. The x_trait(s) column was always filtered to Endozoicomonas, and included multiple metrics such as depth, temperature, extent of turf algal content, latitude and observed species richness (see formula for the specific PGLS test), while perc_dis was always run for the y_trait. Samples were filtered to include those only in the tissue compartment. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum liklelihood (ML) (see Supplementary Data Table 12 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models run with each alpha diversity variable in the tissue compartment. </t>
-    </r>
   </si>
   <si>
     <t>../output/GCMP_trait_table_with_abundances_and_adiv_and_metadata_zeros_depth.tsv</t>
@@ -786,6 +664,128 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> relative abundance and host disease prevalence with potential confounding factors, zero relative abundance counts of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">excluded. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Results generated from the PGLS analysis conducted between Endozoicomonas and disease prevalence filtered by samples in the tissue. The x_trait(s) column was always filtered to Endozoicomonas, and included depth, temperature, extent of turf algal content, latitude and observed species richness, while pec_dis was always run for the y_trait. Samples were filtered to include those only in the tissue compartment. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum liklelihood (ML) (see Supplementary Data Table 13 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models run with each alpha diversity variable in the tissue compartment. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PGLS correlations between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Endozoicomonas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative abundance and host disease prevalence with potential confounding factors, zero relative abundance counts of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">included. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Results generated from the PGLS analysis conducted between Endozoicomonas and disease prevalence filtered by samples in the tissue. The x_trait(s) column was always filtered to Endozoicomonas, and included multiple metrics such as depth, temperature, extent of turf algal content, latitude and observed species richness (see formula for the specific PGLS test), while perc_dis was always run for the y_trait. Samples were filtered to include those only in the tissue compartment. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum liklelihood (ML) (see Supplementary Data Table 13 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models run with each alpha diversity variable in the tissue compartment. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PGLS correlations between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Endozoicomonas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> relative abundance and host disease prevalence, dominance, observed richness, and evenness (gini index). </t>
     </r>
     <r>
@@ -838,7 +838,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> while the y_trait was either perc_dis (disease prevalence), dominance_tissue, observed_features_tissue (richness) or gini_index_tissue (evenness). Samples were filtered to include those only in the tissue compartment. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum liklelihood (ML) (see Supplementary Data Table 12 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models run with each alpha diversity variable in the tissue compartment. </t>
+      <t xml:space="preserve"> while the y_trait was either perc_dis (disease prevalence), dominance_tissue, observed_features_tissue (richness) or gini_index_tissue (evenness). Samples were filtered to include those only in the tissue compartment. Four PGLS models (BM, BM_Lambda, BM_Kappa, BM_Delta) were run where parameters lambda (λ), delta (𝜹), and kappa (κ) were either set to 1 or maximum liklelihood (ML) (see Supplementary Data Table 13 for explanations of parameters). Best model designation is based on the lowest AIC score of the 4 models run with each alpha diversity variable in the tissue compartment. </t>
     </r>
   </si>
 </sst>
@@ -955,6 +955,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,7 +971,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,9 +994,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1034,7 +1034,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1140,7 +1140,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1282,7 +1282,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1292,7 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06CC3E0-6C45-264B-AC77-3286BEF35D46}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
@@ -1302,34 +1302,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:25" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1401,8 +1401,8 @@
       <c r="W3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1412,7 +1412,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4">
         <v>0.59322453578757295</v>
@@ -1448,10 +1448,10 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q4" t="s">
         <v>29</v>
@@ -1463,7 +1463,7 @@
         <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U4">
         <v>0.10438081452051801</v>
@@ -1486,7 +1486,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>1.7311570361121902E-2</v>
@@ -1522,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P5">
         <f>-0.259724868723162 - 0.099990731445362</f>
@@ -1538,7 +1538,7 @@
         <v>27</v>
       </c>
       <c r="T5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U5">
         <v>175.39328347187799</v>
@@ -1561,7 +1561,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <v>4.00518771647035E-2</v>
@@ -1597,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P6">
         <f>-0.0000617307225621437 - 0.000328211671268493</f>
@@ -1613,7 +1613,7 @@
         <v>27</v>
       </c>
       <c r="T6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U6">
         <v>0.86169724989228402</v>
@@ -1710,7 +1710,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8">
         <v>0.51768017859406001</v>
@@ -1746,10 +1746,10 @@
         <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q8" t="s">
         <v>29</v>
@@ -1784,7 +1784,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D9">
         <v>0.60963479328870496</v>
@@ -1820,10 +1820,10 @@
         <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -1835,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="T9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U9">
         <v>0.15138410004993599</v>
@@ -1858,7 +1858,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10">
         <v>0.51768017859406001</v>
@@ -1894,10 +1894,10 @@
         <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q10" t="s">
         <v>29</v>
@@ -1909,7 +1909,7 @@
         <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U10">
         <v>0.12544642283666901</v>
@@ -1932,7 +1932,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11">
         <v>6.2764275494461997E-3</v>
@@ -1968,7 +1968,7 @@
         <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P11">
         <f>-0.209109027476679 - 0.121265754328193</f>
@@ -2007,7 +2007,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>1.5395377097070001E-3</v>
@@ -2043,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P12">
         <f>-0.138512943236271 - 0.180411125533853</f>
@@ -2059,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="T12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U12">
         <v>143.16985648981299</v>
@@ -2082,7 +2082,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13">
         <v>6.2764275494461997E-3</v>
@@ -2118,7 +2118,7 @@
         <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P13">
         <f>-0.209109027476679 - 0.121265754328193</f>
@@ -2134,7 +2134,7 @@
         <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U13">
         <v>170.94945890861001</v>
@@ -2157,7 +2157,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14">
         <v>3.8630884244340001E-4</v>
@@ -2193,7 +2193,7 @@
         <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P14">
         <f>-0.000341017637543218 - 0.000298928247329287</f>
@@ -2232,7 +2232,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15">
         <v>3.2545513701444E-3</v>
@@ -2268,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P15">
         <f>-0.000130939838878172 - 0.000192838169880419</f>
@@ -2284,7 +2284,7 @@
         <v>33</v>
       </c>
       <c r="T15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U15">
         <v>0.89676938768321901</v>
@@ -2307,7 +2307,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16">
         <v>3.8630884244340001E-4</v>
@@ -2343,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P16">
         <f>-0.000341017637543218 - 0.000298928247329287</f>
@@ -2359,7 +2359,7 @@
         <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U16">
         <v>0.88866773046207803</v>
@@ -2614,25 +2614,25 @@
   <dimension ref="A1:X187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -2648,19 +2648,19 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -2796,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R4" t="s">
         <v>29</v>
@@ -2805,13 +2805,13 @@
         <v>27</v>
       </c>
       <c r="T4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U4">
         <v>1.3884073E-2</v>
       </c>
       <c r="V4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W4" t="s">
         <v>62</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>102</v>
@@ -2867,7 +2867,7 @@
         <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -2876,13 +2876,13 @@
         <v>27</v>
       </c>
       <c r="T5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U5">
         <v>3.8605884E-2</v>
       </c>
       <c r="V5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W5" t="s">
         <v>62</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>106</v>
@@ -2938,7 +2938,7 @@
         <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
         <v>29</v>
@@ -2947,13 +2947,13 @@
         <v>27</v>
       </c>
       <c r="T6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U6">
         <v>3.4979035999999998E-2</v>
       </c>
       <c r="V6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W6" t="s">
         <v>62</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
@@ -3009,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -3018,13 +3018,13 @@
         <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U7">
         <v>4.9774312000000001E-2</v>
       </c>
       <c r="V7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W7" t="s">
         <v>62</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -3080,7 +3080,7 @@
         <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R8" t="s">
         <v>29</v>
@@ -3089,13 +3089,13 @@
         <v>27</v>
       </c>
       <c r="T8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U8">
         <v>5.8875293000000002E-2</v>
       </c>
       <c r="V8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W8" t="s">
         <v>62</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -3151,7 +3151,7 @@
         <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R9" t="s">
         <v>29</v>
@@ -3160,13 +3160,13 @@
         <v>27</v>
       </c>
       <c r="T9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U9">
         <v>5.1130361999999999E-2</v>
       </c>
       <c r="V9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W9" t="s">
         <v>62</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -3222,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R10" t="s">
         <v>29</v>
@@ -3231,13 +3231,13 @@
         <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U10">
         <v>2.5653638999999999E-2</v>
       </c>
       <c r="V10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W10" t="s">
         <v>62</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -3293,7 +3293,7 @@
         <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R11" t="s">
         <v>29</v>
@@ -3302,13 +3302,13 @@
         <v>27</v>
       </c>
       <c r="T11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U11">
         <v>2.5653638999999999E-2</v>
       </c>
       <c r="V11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W11" t="s">
         <v>62</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -3364,7 +3364,7 @@
         <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R12" t="s">
         <v>29</v>
@@ -3373,13 +3373,13 @@
         <v>27</v>
       </c>
       <c r="T12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U12">
         <v>1.6554698E-2</v>
       </c>
       <c r="V12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W12" t="s">
         <v>62</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
@@ -3435,7 +3435,7 @@
         <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R13" t="s">
         <v>29</v>
@@ -3444,13 +3444,13 @@
         <v>27</v>
       </c>
       <c r="T13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U13">
         <v>1.5406915E-2</v>
       </c>
       <c r="V13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W13" t="s">
         <v>62</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
@@ -3506,7 +3506,7 @@
         <v>25</v>
       </c>
       <c r="Q14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R14" t="s">
         <v>29</v>
@@ -3515,13 +3515,13 @@
         <v>27</v>
       </c>
       <c r="T14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U14">
         <v>3.5808801000000001E-2</v>
       </c>
       <c r="V14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W14" t="s">
         <v>62</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
@@ -3577,7 +3577,7 @@
         <v>25</v>
       </c>
       <c r="Q15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R15" t="s">
         <v>29</v>
@@ -3586,13 +3586,13 @@
         <v>27</v>
       </c>
       <c r="T15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U15">
         <v>2.2899969999999999E-2</v>
       </c>
       <c r="V15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W15" t="s">
         <v>62</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -3648,7 +3648,7 @@
         <v>25</v>
       </c>
       <c r="Q16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R16" t="s">
         <v>29</v>
@@ -3657,13 +3657,13 @@
         <v>27</v>
       </c>
       <c r="T16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U16">
         <v>5.1130361999999999E-2</v>
       </c>
       <c r="V16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W16" t="s">
         <v>62</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -3719,7 +3719,7 @@
         <v>25</v>
       </c>
       <c r="Q17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R17" t="s">
         <v>29</v>
@@ -3728,13 +3728,13 @@
         <v>27</v>
       </c>
       <c r="T17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U17">
         <v>1.6554698E-2</v>
       </c>
       <c r="V17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W17" t="s">
         <v>62</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
@@ -3790,7 +3790,7 @@
         <v>25</v>
       </c>
       <c r="Q18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R18" t="s">
         <v>29</v>
@@ -3799,13 +3799,13 @@
         <v>27</v>
       </c>
       <c r="T18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U18">
         <v>1.5406915E-2</v>
       </c>
       <c r="V18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W18" t="s">
         <v>62</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>102</v>
@@ -3861,7 +3861,7 @@
         <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
         <v>29</v>
@@ -3870,13 +3870,13 @@
         <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U19">
         <v>3.8605884E-2</v>
       </c>
       <c r="V19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W19" t="s">
         <v>62</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
@@ -3932,7 +3932,7 @@
         <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R20" t="s">
         <v>29</v>
@@ -3941,13 +3941,13 @@
         <v>27</v>
       </c>
       <c r="T20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U20">
         <v>4.9774312000000001E-2</v>
       </c>
       <c r="V20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W20" t="s">
         <v>62</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
@@ -4003,7 +4003,7 @@
         <v>25</v>
       </c>
       <c r="Q21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R21" t="s">
         <v>29</v>
@@ -4012,13 +4012,13 @@
         <v>27</v>
       </c>
       <c r="T21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U21">
         <v>3.5808801000000001E-2</v>
       </c>
       <c r="V21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W21" t="s">
         <v>62</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -4074,7 +4074,7 @@
         <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R22" t="s">
         <v>29</v>
@@ -4083,13 +4083,13 @@
         <v>27</v>
       </c>
       <c r="T22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U22">
         <v>5.8875293000000002E-2</v>
       </c>
       <c r="V22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W22" t="s">
         <v>62</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -4145,7 +4145,7 @@
         <v>25</v>
       </c>
       <c r="Q23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R23" t="s">
         <v>29</v>
@@ -4154,13 +4154,13 @@
         <v>27</v>
       </c>
       <c r="T23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U23">
         <v>5.8875293000000002E-2</v>
       </c>
       <c r="V23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W23" t="s">
         <v>62</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -4216,7 +4216,7 @@
         <v>25</v>
       </c>
       <c r="Q24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R24" t="s">
         <v>29</v>
@@ -4225,13 +4225,13 @@
         <v>27</v>
       </c>
       <c r="T24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U24">
         <v>5.1130361999999999E-2</v>
       </c>
       <c r="V24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W24" t="s">
         <v>62</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
@@ -4287,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="Q25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R25" t="s">
         <v>29</v>
@@ -4296,13 +4296,13 @@
         <v>27</v>
       </c>
       <c r="T25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U25">
         <v>3.4979035999999998E-2</v>
       </c>
       <c r="V25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W25" t="s">
         <v>62</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -4358,7 +4358,7 @@
         <v>25</v>
       </c>
       <c r="Q26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R26" t="s">
         <v>29</v>
@@ -4367,13 +4367,13 @@
         <v>27</v>
       </c>
       <c r="T26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U26">
         <v>2.5653638999999999E-2</v>
       </c>
       <c r="V26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W26" t="s">
         <v>62</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
@@ -4429,7 +4429,7 @@
         <v>25</v>
       </c>
       <c r="Q27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R27" t="s">
         <v>29</v>
@@ -4438,13 +4438,13 @@
         <v>27</v>
       </c>
       <c r="T27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U27">
         <v>1.5406915E-2</v>
       </c>
       <c r="V27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W27" t="s">
         <v>62</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -4500,7 +4500,7 @@
         <v>25</v>
       </c>
       <c r="Q28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R28" t="s">
         <v>29</v>
@@ -4509,13 +4509,13 @@
         <v>27</v>
       </c>
       <c r="T28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U28">
         <v>2.5653638999999999E-2</v>
       </c>
       <c r="V28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W28" t="s">
         <v>62</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
@@ -4571,7 +4571,7 @@
         <v>25</v>
       </c>
       <c r="Q29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R29" t="s">
         <v>29</v>
@@ -4580,13 +4580,13 @@
         <v>27</v>
       </c>
       <c r="T29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U29">
         <v>2.2899969999999999E-2</v>
       </c>
       <c r="V29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W29" t="s">
         <v>62</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
@@ -4642,7 +4642,7 @@
         <v>25</v>
       </c>
       <c r="Q30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R30" t="s">
         <v>29</v>
@@ -4651,13 +4651,13 @@
         <v>27</v>
       </c>
       <c r="T30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U30">
         <v>1.6554698E-2</v>
       </c>
       <c r="V30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W30" t="s">
         <v>62</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>90</v>
@@ -4713,7 +4713,7 @@
         <v>25</v>
       </c>
       <c r="Q31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R31" t="s">
         <v>29</v>
@@ -4722,13 +4722,13 @@
         <v>27</v>
       </c>
       <c r="T31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U31">
         <v>1.5406915E-2</v>
       </c>
       <c r="V31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W31" t="s">
         <v>62</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>98</v>
@@ -4784,7 +4784,7 @@
         <v>25</v>
       </c>
       <c r="Q32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R32" t="s">
         <v>29</v>
@@ -4793,13 +4793,13 @@
         <v>27</v>
       </c>
       <c r="T32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U32">
         <v>3.5808801000000001E-2</v>
       </c>
       <c r="V32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W32" t="s">
         <v>62</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -4855,7 +4855,7 @@
         <v>25</v>
       </c>
       <c r="Q33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R33" t="s">
         <v>29</v>
@@ -4864,13 +4864,13 @@
         <v>27</v>
       </c>
       <c r="T33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U33">
         <v>2.5653638999999999E-2</v>
       </c>
       <c r="V33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W33" t="s">
         <v>62</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -4926,7 +4926,7 @@
         <v>25</v>
       </c>
       <c r="Q34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R34" t="s">
         <v>29</v>
@@ -4935,13 +4935,13 @@
         <v>27</v>
       </c>
       <c r="T34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U34">
         <v>1.3884073E-2</v>
       </c>
       <c r="V34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W34" t="s">
         <v>62</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
         <v>81</v>
@@ -4997,7 +4997,7 @@
         <v>25</v>
       </c>
       <c r="Q35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R35" t="s">
         <v>29</v>
@@ -5006,13 +5006,13 @@
         <v>27</v>
       </c>
       <c r="T35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U35">
         <v>2.2899969999999999E-2</v>
       </c>
       <c r="V35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W35" t="s">
         <v>62</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
         <v>106</v>
@@ -5068,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="Q36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R36" t="s">
         <v>29</v>
@@ -5077,13 +5077,13 @@
         <v>27</v>
       </c>
       <c r="T36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U36">
         <v>3.4979035999999998E-2</v>
       </c>
       <c r="V36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W36" t="s">
         <v>62</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -5139,7 +5139,7 @@
         <v>25</v>
       </c>
       <c r="Q37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R37" t="s">
         <v>29</v>
@@ -5148,13 +5148,13 @@
         <v>27</v>
       </c>
       <c r="T37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U37">
         <v>2.5653638999999999E-2</v>
       </c>
       <c r="V37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W37" t="s">
         <v>62</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
         <v>98</v>
@@ -5210,7 +5210,7 @@
         <v>25</v>
       </c>
       <c r="Q38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R38" t="s">
         <v>29</v>
@@ -5219,13 +5219,13 @@
         <v>27</v>
       </c>
       <c r="T38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U38">
         <v>3.5808801000000001E-2</v>
       </c>
       <c r="V38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W38" t="s">
         <v>62</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
@@ -5281,7 +5281,7 @@
         <v>25</v>
       </c>
       <c r="Q39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R39" t="s">
         <v>29</v>
@@ -5290,13 +5290,13 @@
         <v>27</v>
       </c>
       <c r="T39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U39">
         <v>5.1130361999999999E-2</v>
       </c>
       <c r="V39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W39" t="s">
         <v>62</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
         <v>102</v>
@@ -5352,7 +5352,7 @@
         <v>25</v>
       </c>
       <c r="Q40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R40" t="s">
         <v>29</v>
@@ -5361,13 +5361,13 @@
         <v>27</v>
       </c>
       <c r="T40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U40">
         <v>3.8605884E-2</v>
       </c>
       <c r="V40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W40" t="s">
         <v>62</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
         <v>94</v>
@@ -5423,7 +5423,7 @@
         <v>25</v>
       </c>
       <c r="Q41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R41" t="s">
         <v>29</v>
@@ -5432,13 +5432,13 @@
         <v>27</v>
       </c>
       <c r="T41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U41">
         <v>4.9774312000000001E-2</v>
       </c>
       <c r="V41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W41" t="s">
         <v>62</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
         <v>76</v>
@@ -5494,7 +5494,7 @@
         <v>25</v>
       </c>
       <c r="Q42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R42" t="s">
         <v>29</v>
@@ -5503,13 +5503,13 @@
         <v>27</v>
       </c>
       <c r="T42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U42">
         <v>5.8875293000000002E-2</v>
       </c>
       <c r="V42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W42" t="s">
         <v>62</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
@@ -5565,7 +5565,7 @@
         <v>25</v>
       </c>
       <c r="Q43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R43" t="s">
         <v>29</v>
@@ -5574,13 +5574,13 @@
         <v>27</v>
       </c>
       <c r="T43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U43">
         <v>1.6554698E-2</v>
       </c>
       <c r="V43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W43" t="s">
         <v>62</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
         <v>90</v>
@@ -5636,7 +5636,7 @@
         <v>25</v>
       </c>
       <c r="Q44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R44" t="s">
         <v>29</v>
@@ -5645,13 +5645,13 @@
         <v>27</v>
       </c>
       <c r="T44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U44">
         <v>1.5406915E-2</v>
       </c>
       <c r="V44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W44" t="s">
         <v>62</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
@@ -5707,7 +5707,7 @@
         <v>25</v>
       </c>
       <c r="Q45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R45" t="s">
         <v>29</v>
@@ -5716,13 +5716,13 @@
         <v>27</v>
       </c>
       <c r="T45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U45">
         <v>1.3884073E-2</v>
       </c>
       <c r="V45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W45" t="s">
         <v>62</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -5778,7 +5778,7 @@
         <v>25</v>
       </c>
       <c r="Q46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R46" t="s">
         <v>29</v>
@@ -5787,13 +5787,13 @@
         <v>27</v>
       </c>
       <c r="T46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U46">
         <v>1.6554698E-2</v>
       </c>
       <c r="V46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W46" t="s">
         <v>62</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
@@ -5849,7 +5849,7 @@
         <v>25</v>
       </c>
       <c r="Q47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R47" t="s">
         <v>29</v>
@@ -5858,13 +5858,13 @@
         <v>27</v>
       </c>
       <c r="T47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U47">
         <v>1.5406915E-2</v>
       </c>
       <c r="V47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W47" t="s">
         <v>62</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
@@ -5920,7 +5920,7 @@
         <v>25</v>
       </c>
       <c r="Q48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R48" t="s">
         <v>29</v>
@@ -5929,13 +5929,13 @@
         <v>27</v>
       </c>
       <c r="T48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U48">
         <v>3.8605884E-2</v>
       </c>
       <c r="V48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W48" t="s">
         <v>62</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
         <v>76</v>
@@ -5991,7 +5991,7 @@
         <v>25</v>
       </c>
       <c r="Q49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R49" t="s">
         <v>29</v>
@@ -6000,13 +6000,13 @@
         <v>27</v>
       </c>
       <c r="T49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U49">
         <v>5.8875293000000002E-2</v>
       </c>
       <c r="V49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W49" t="s">
         <v>62</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
@@ -6062,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="Q50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R50" t="s">
         <v>29</v>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W50" t="s">
         <v>62</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s">
         <v>94</v>
@@ -6133,7 +6133,7 @@
         <v>25</v>
       </c>
       <c r="Q51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R51" t="s">
         <v>29</v>
@@ -6142,13 +6142,13 @@
         <v>33</v>
       </c>
       <c r="T51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U51">
         <v>0.21055177</v>
       </c>
       <c r="V51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W51" t="s">
         <v>62</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
         <v>98</v>
@@ -6204,7 +6204,7 @@
         <v>25</v>
       </c>
       <c r="Q52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R52" t="s">
         <v>29</v>
@@ -6213,13 +6213,13 @@
         <v>33</v>
       </c>
       <c r="T52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U52">
         <v>0.228999438</v>
       </c>
       <c r="V52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W52" t="s">
         <v>62</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s">
         <v>64</v>
@@ -6275,7 +6275,7 @@
         <v>25</v>
       </c>
       <c r="Q53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R53" t="s">
         <v>29</v>
@@ -6284,13 +6284,13 @@
         <v>36</v>
       </c>
       <c r="T53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U53">
         <v>1</v>
       </c>
       <c r="V53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W53" t="s">
         <v>62</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
         <v>81</v>
@@ -6346,7 +6346,7 @@
         <v>25</v>
       </c>
       <c r="Q54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R54" t="s">
         <v>29</v>
@@ -6355,13 +6355,13 @@
         <v>33</v>
       </c>
       <c r="T54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U54">
         <v>0.28368626699999999</v>
       </c>
       <c r="V54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W54" t="s">
         <v>62</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
@@ -6417,7 +6417,7 @@
         <v>25</v>
       </c>
       <c r="Q55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R55" t="s">
         <v>29</v>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="V55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W55" t="s">
         <v>62</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -6488,7 +6488,7 @@
         <v>25</v>
       </c>
       <c r="Q56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R56" t="s">
         <v>29</v>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="V56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W56" t="s">
         <v>62</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
         <v>94</v>
@@ -6559,7 +6559,7 @@
         <v>25</v>
       </c>
       <c r="Q57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R57" t="s">
         <v>29</v>
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="V57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W57" t="s">
         <v>62</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
@@ -6630,7 +6630,7 @@
         <v>25</v>
       </c>
       <c r="Q58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R58" t="s">
         <v>29</v>
@@ -6639,13 +6639,13 @@
         <v>36</v>
       </c>
       <c r="T58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U58">
         <v>1</v>
       </c>
       <c r="V58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W58" t="s">
         <v>62</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
@@ -6701,7 +6701,7 @@
         <v>25</v>
       </c>
       <c r="Q59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R59" t="s">
         <v>29</v>
@@ -6710,13 +6710,13 @@
         <v>33</v>
       </c>
       <c r="T59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U59">
         <v>0.21590158000000001</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W59" t="s">
         <v>62</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
         <v>90</v>
@@ -6772,7 +6772,7 @@
         <v>25</v>
       </c>
       <c r="Q60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R60" t="s">
         <v>29</v>
@@ -6781,13 +6781,13 @@
         <v>36</v>
       </c>
       <c r="T60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U60">
         <v>1</v>
       </c>
       <c r="V60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W60" t="s">
         <v>62</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
         <v>90</v>
@@ -6843,7 +6843,7 @@
         <v>25</v>
       </c>
       <c r="Q61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R61" t="s">
         <v>29</v>
@@ -6852,13 +6852,13 @@
         <v>33</v>
       </c>
       <c r="T61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U61">
         <v>0.18404199700000001</v>
       </c>
       <c r="V61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W61" t="s">
         <v>62</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
@@ -6914,7 +6914,7 @@
         <v>25</v>
       </c>
       <c r="Q62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R62" t="s">
         <v>29</v>
@@ -6923,13 +6923,13 @@
         <v>33</v>
       </c>
       <c r="T62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U62">
         <v>0.17310251600000001</v>
       </c>
       <c r="V62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W62" t="s">
         <v>62</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
@@ -6985,7 +6985,7 @@
         <v>25</v>
       </c>
       <c r="Q63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R63" t="s">
         <v>29</v>
@@ -7000,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="V63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W63" t="s">
         <v>62</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
         <v>85</v>
@@ -7056,7 +7056,7 @@
         <v>25</v>
       </c>
       <c r="Q64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R64" t="s">
         <v>29</v>
@@ -7065,13 +7065,13 @@
         <v>36</v>
       </c>
       <c r="T64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U64">
         <v>1</v>
       </c>
       <c r="V64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W64" t="s">
         <v>62</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
         <v>85</v>
@@ -7127,7 +7127,7 @@
         <v>25</v>
       </c>
       <c r="Q65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R65" t="s">
         <v>29</v>
@@ -7136,13 +7136,13 @@
         <v>33</v>
       </c>
       <c r="T65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U65">
         <v>0.1713105</v>
       </c>
       <c r="V65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W65" t="s">
         <v>62</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
         <v>85</v>
@@ -7198,7 +7198,7 @@
         <v>25</v>
       </c>
       <c r="Q66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R66" t="s">
         <v>29</v>
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="V66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W66" t="s">
         <v>62</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
         <v>81</v>
@@ -7269,7 +7269,7 @@
         <v>25</v>
       </c>
       <c r="Q67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R67" t="s">
         <v>29</v>
@@ -7278,13 +7278,13 @@
         <v>36</v>
       </c>
       <c r="T67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
       <c r="V67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W67" t="s">
         <v>62</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
         <v>56</v>
@@ -7340,7 +7340,7 @@
         <v>25</v>
       </c>
       <c r="Q68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R68" t="s">
         <v>29</v>
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="V68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W68" t="s">
         <v>62</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
         <v>56</v>
@@ -7411,7 +7411,7 @@
         <v>25</v>
       </c>
       <c r="Q69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R69" t="s">
         <v>29</v>
@@ -7420,13 +7420,13 @@
         <v>33</v>
       </c>
       <c r="T69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U69">
         <v>0.21590158000000001</v>
       </c>
       <c r="V69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W69" t="s">
         <v>62</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
@@ -7482,7 +7482,7 @@
         <v>25</v>
       </c>
       <c r="Q70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R70" t="s">
         <v>29</v>
@@ -7491,13 +7491,13 @@
         <v>33</v>
       </c>
       <c r="T70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U70">
         <v>0.34978502700000003</v>
       </c>
       <c r="V70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W70" t="s">
         <v>62</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
         <v>56</v>
@@ -7553,7 +7553,7 @@
         <v>25</v>
       </c>
       <c r="Q71" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R71" t="s">
         <v>29</v>
@@ -7562,13 +7562,13 @@
         <v>36</v>
       </c>
       <c r="T71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U71">
         <v>1</v>
       </c>
       <c r="V71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W71" t="s">
         <v>62</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
         <v>102</v>
@@ -7624,7 +7624,7 @@
         <v>25</v>
       </c>
       <c r="Q72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R72" t="s">
         <v>29</v>
@@ -7633,13 +7633,13 @@
         <v>33</v>
       </c>
       <c r="T72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U72">
         <v>0.16393429600000001</v>
       </c>
       <c r="V72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W72" t="s">
         <v>62</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
         <v>106</v>
@@ -7695,7 +7695,7 @@
         <v>25</v>
       </c>
       <c r="Q73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R73" t="s">
         <v>29</v>
@@ -7704,13 +7704,13 @@
         <v>36</v>
       </c>
       <c r="T73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U73">
         <v>1</v>
       </c>
       <c r="V73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W73" t="s">
         <v>62</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
         <v>94</v>
@@ -7766,7 +7766,7 @@
         <v>25</v>
       </c>
       <c r="Q74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R74" t="s">
         <v>29</v>
@@ -7775,13 +7775,13 @@
         <v>36</v>
       </c>
       <c r="T74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U74">
         <v>1</v>
       </c>
       <c r="V74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W74" t="s">
         <v>62</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
         <v>102</v>
@@ -7837,7 +7837,7 @@
         <v>25</v>
       </c>
       <c r="Q75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R75" t="s">
         <v>29</v>
@@ -7846,13 +7846,13 @@
         <v>36</v>
       </c>
       <c r="T75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U75">
         <v>1</v>
       </c>
       <c r="V75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W75" t="s">
         <v>62</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
@@ -7908,7 +7908,7 @@
         <v>25</v>
       </c>
       <c r="Q76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R76" t="s">
         <v>29</v>
@@ -7917,13 +7917,13 @@
         <v>36</v>
       </c>
       <c r="T76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U76">
         <v>1</v>
       </c>
       <c r="V76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W76" t="s">
         <v>62</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
         <v>106</v>
@@ -7979,7 +7979,7 @@
         <v>25</v>
       </c>
       <c r="Q77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R77" t="s">
         <v>29</v>
@@ -7988,13 +7988,13 @@
         <v>33</v>
       </c>
       <c r="T77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U77">
         <v>0.43995505800000001</v>
       </c>
       <c r="V77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W77" t="s">
         <v>62</v>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -8050,7 +8050,7 @@
         <v>25</v>
       </c>
       <c r="Q78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R78" t="s">
         <v>29</v>
@@ -8059,13 +8059,13 @@
         <v>33</v>
       </c>
       <c r="T78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U78">
         <v>0.31817611600000001</v>
       </c>
       <c r="V78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W78" t="s">
         <v>62</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
@@ -8121,7 +8121,7 @@
         <v>25</v>
       </c>
       <c r="Q79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R79" t="s">
         <v>29</v>
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="V79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W79" t="s">
         <v>62</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
         <v>56</v>
@@ -8192,7 +8192,7 @@
         <v>25</v>
       </c>
       <c r="Q80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R80" t="s">
         <v>29</v>
@@ -8201,13 +8201,13 @@
         <v>36</v>
       </c>
       <c r="T80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U80">
         <v>1</v>
       </c>
       <c r="V80" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W80" t="s">
         <v>62</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
         <v>98</v>
@@ -8263,7 +8263,7 @@
         <v>25</v>
       </c>
       <c r="Q81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R81" t="s">
         <v>29</v>
@@ -8272,13 +8272,13 @@
         <v>36</v>
       </c>
       <c r="T81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U81">
         <v>1</v>
       </c>
       <c r="V81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W81" t="s">
         <v>62</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
         <v>106</v>
@@ -8334,7 +8334,7 @@
         <v>25</v>
       </c>
       <c r="Q82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R82" t="s">
         <v>29</v>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="V82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W82" t="s">
         <v>62</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B83" t="s">
         <v>56</v>
@@ -8405,7 +8405,7 @@
         <v>25</v>
       </c>
       <c r="Q83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R83" t="s">
         <v>29</v>
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="V83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W83" t="s">
         <v>62</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
         <v>102</v>
@@ -8476,7 +8476,7 @@
         <v>25</v>
       </c>
       <c r="Q84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R84" t="s">
         <v>29</v>
@@ -8491,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="V84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W84" t="s">
         <v>62</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
@@ -8547,7 +8547,7 @@
         <v>25</v>
       </c>
       <c r="Q85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R85" t="s">
         <v>29</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="V85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W85" t="s">
         <v>62</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
         <v>102</v>
@@ -8618,7 +8618,7 @@
         <v>25</v>
       </c>
       <c r="Q86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R86" t="s">
         <v>29</v>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="V86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W86" t="s">
         <v>62</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
         <v>76</v>
@@ -8689,7 +8689,7 @@
         <v>25</v>
       </c>
       <c r="Q87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R87" t="s">
         <v>29</v>
@@ -8704,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="V87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W87" t="s">
         <v>62</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
         <v>102</v>
@@ -8760,7 +8760,7 @@
         <v>25</v>
       </c>
       <c r="Q88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R88" t="s">
         <v>29</v>
@@ -8769,13 +8769,13 @@
         <v>36</v>
       </c>
       <c r="T88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U88">
         <v>1</v>
       </c>
       <c r="V88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W88" t="s">
         <v>62</v>
@@ -8783,7 +8783,7 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
         <v>98</v>
@@ -8831,7 +8831,7 @@
         <v>25</v>
       </c>
       <c r="Q89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R89" t="s">
         <v>29</v>
@@ -8846,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="V89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W89" t="s">
         <v>62</v>
@@ -8854,7 +8854,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
         <v>85</v>
@@ -8902,7 +8902,7 @@
         <v>25</v>
       </c>
       <c r="Q90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R90" t="s">
         <v>29</v>
@@ -8911,13 +8911,13 @@
         <v>36</v>
       </c>
       <c r="T90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U90">
         <v>1</v>
       </c>
       <c r="V90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W90" t="s">
         <v>62</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
         <v>76</v>
@@ -8973,7 +8973,7 @@
         <v>25</v>
       </c>
       <c r="Q91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R91" t="s">
         <v>29</v>
@@ -8982,13 +8982,13 @@
         <v>36</v>
       </c>
       <c r="T91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U91">
         <v>1</v>
       </c>
       <c r="V91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W91" t="s">
         <v>62</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
@@ -9044,7 +9044,7 @@
         <v>25</v>
       </c>
       <c r="Q92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R92" t="s">
         <v>29</v>
@@ -9053,13 +9053,13 @@
         <v>33</v>
       </c>
       <c r="T92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U92">
         <v>0.1713105</v>
       </c>
       <c r="V92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W92" t="s">
         <v>62</v>
@@ -9067,7 +9067,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
         <v>90</v>
@@ -9115,7 +9115,7 @@
         <v>25</v>
       </c>
       <c r="Q93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R93" t="s">
         <v>29</v>
@@ -9124,13 +9124,13 @@
         <v>36</v>
       </c>
       <c r="T93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U93">
         <v>1</v>
       </c>
       <c r="V93" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W93" t="s">
         <v>62</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
@@ -9186,7 +9186,7 @@
         <v>25</v>
       </c>
       <c r="Q94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R94" t="s">
         <v>29</v>
@@ -9195,13 +9195,13 @@
         <v>33</v>
       </c>
       <c r="T94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U94">
         <v>0.18404199700000001</v>
       </c>
       <c r="V94" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W94" t="s">
         <v>62</v>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
         <v>90</v>
@@ -9257,7 +9257,7 @@
         <v>25</v>
       </c>
       <c r="Q95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R95" t="s">
         <v>29</v>
@@ -9272,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="V95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W95" t="s">
         <v>62</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
         <v>85</v>
@@ -9328,7 +9328,7 @@
         <v>25</v>
       </c>
       <c r="Q96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R96" t="s">
         <v>29</v>
@@ -9343,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="V96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W96" t="s">
         <v>62</v>
@@ -9351,7 +9351,7 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
         <v>94</v>
@@ -9399,7 +9399,7 @@
         <v>25</v>
       </c>
       <c r="Q97" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R97" t="s">
         <v>29</v>
@@ -9414,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="V97" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W97" t="s">
         <v>62</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
         <v>94</v>
@@ -9470,7 +9470,7 @@
         <v>25</v>
       </c>
       <c r="Q98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R98" t="s">
         <v>29</v>
@@ -9479,13 +9479,13 @@
         <v>33</v>
       </c>
       <c r="T98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U98">
         <v>0.21055177</v>
       </c>
       <c r="V98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W98" t="s">
         <v>62</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
         <v>64</v>
@@ -9541,7 +9541,7 @@
         <v>25</v>
       </c>
       <c r="Q99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R99" t="s">
         <v>29</v>
@@ -9556,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="V99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W99" t="s">
         <v>62</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
         <v>76</v>
@@ -9612,7 +9612,7 @@
         <v>25</v>
       </c>
       <c r="Q100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R100" t="s">
         <v>29</v>
@@ -9621,13 +9621,13 @@
         <v>33</v>
       </c>
       <c r="T100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U100">
         <v>0.31817611600000001</v>
       </c>
       <c r="V100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W100" t="s">
         <v>62</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -9683,7 +9683,7 @@
         <v>25</v>
       </c>
       <c r="Q101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R101" t="s">
         <v>29</v>
@@ -9692,13 +9692,13 @@
         <v>33</v>
       </c>
       <c r="T101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U101">
         <v>0.16393429600000001</v>
       </c>
       <c r="V101" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W101" t="s">
         <v>62</v>
@@ -9706,7 +9706,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
@@ -9754,7 +9754,7 @@
         <v>25</v>
       </c>
       <c r="Q102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R102" t="s">
         <v>29</v>
@@ -9763,13 +9763,13 @@
         <v>33</v>
       </c>
       <c r="T102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U102">
         <v>0.34978502700000003</v>
       </c>
       <c r="V102" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W102" t="s">
         <v>62</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
@@ -9825,7 +9825,7 @@
         <v>25</v>
       </c>
       <c r="Q103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R103" t="s">
         <v>29</v>
@@ -9834,13 +9834,13 @@
         <v>36</v>
       </c>
       <c r="T103" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U103">
         <v>1</v>
       </c>
       <c r="V103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W103" t="s">
         <v>62</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
         <v>94</v>
@@ -9896,7 +9896,7 @@
         <v>25</v>
       </c>
       <c r="Q104" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R104" t="s">
         <v>29</v>
@@ -9905,13 +9905,13 @@
         <v>36</v>
       </c>
       <c r="T104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U104">
         <v>1</v>
       </c>
       <c r="V104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W104" t="s">
         <v>62</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
         <v>98</v>
@@ -9967,7 +9967,7 @@
         <v>25</v>
       </c>
       <c r="Q105" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R105" t="s">
         <v>29</v>
@@ -9976,13 +9976,13 @@
         <v>36</v>
       </c>
       <c r="T105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U105">
         <v>1</v>
       </c>
       <c r="V105" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W105" t="s">
         <v>62</v>
@@ -9990,7 +9990,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B106" t="s">
         <v>98</v>
@@ -10038,7 +10038,7 @@
         <v>25</v>
       </c>
       <c r="Q106" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R106" t="s">
         <v>29</v>
@@ -10047,13 +10047,13 @@
         <v>33</v>
       </c>
       <c r="T106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U106">
         <v>0.228999438</v>
       </c>
       <c r="V106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W106" t="s">
         <v>62</v>
@@ -10061,7 +10061,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
         <v>64</v>
@@ -10109,7 +10109,7 @@
         <v>25</v>
       </c>
       <c r="Q107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R107" t="s">
         <v>29</v>
@@ -10124,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="V107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W107" t="s">
         <v>62</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -10180,7 +10180,7 @@
         <v>25</v>
       </c>
       <c r="Q108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R108" t="s">
         <v>29</v>
@@ -10189,13 +10189,13 @@
         <v>36</v>
       </c>
       <c r="T108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U108">
         <v>1</v>
       </c>
       <c r="V108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W108" t="s">
         <v>62</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
@@ -10251,7 +10251,7 @@
         <v>25</v>
       </c>
       <c r="Q109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R109" t="s">
         <v>29</v>
@@ -10260,13 +10260,13 @@
         <v>33</v>
       </c>
       <c r="T109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U109">
         <v>0.31817611600000001</v>
       </c>
       <c r="V109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W109" t="s">
         <v>62</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
         <v>64</v>
@@ -10322,7 +10322,7 @@
         <v>25</v>
       </c>
       <c r="Q110" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R110" t="s">
         <v>29</v>
@@ -10331,13 +10331,13 @@
         <v>33</v>
       </c>
       <c r="T110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U110">
         <v>0.34978502700000003</v>
       </c>
       <c r="V110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W110" t="s">
         <v>62</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
         <v>76</v>
@@ -10393,7 +10393,7 @@
         <v>25</v>
       </c>
       <c r="Q111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R111" t="s">
         <v>29</v>
@@ -10408,7 +10408,7 @@
         <v>1</v>
       </c>
       <c r="V111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W111" t="s">
         <v>62</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
         <v>106</v>
@@ -10464,7 +10464,7 @@
         <v>25</v>
       </c>
       <c r="Q112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R112" t="s">
         <v>29</v>
@@ -10473,13 +10473,13 @@
         <v>33</v>
       </c>
       <c r="T112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U112">
         <v>0.43995505800000001</v>
       </c>
       <c r="V112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W112" t="s">
         <v>62</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
         <v>76</v>
@@ -10535,7 +10535,7 @@
         <v>25</v>
       </c>
       <c r="Q113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R113" t="s">
         <v>29</v>
@@ -10544,13 +10544,13 @@
         <v>36</v>
       </c>
       <c r="T113" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U113">
         <v>1</v>
       </c>
       <c r="V113" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W113" t="s">
         <v>62</v>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
         <v>64</v>
@@ -10606,7 +10606,7 @@
         <v>25</v>
       </c>
       <c r="Q114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R114" t="s">
         <v>29</v>
@@ -10615,13 +10615,13 @@
         <v>36</v>
       </c>
       <c r="T114" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U114">
         <v>1</v>
       </c>
       <c r="V114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W114" t="s">
         <v>62</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
         <v>106</v>
@@ -10677,7 +10677,7 @@
         <v>25</v>
       </c>
       <c r="Q115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R115" t="s">
         <v>29</v>
@@ -10692,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="V115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W115" t="s">
         <v>62</v>
@@ -10700,7 +10700,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
         <v>56</v>
@@ -10748,7 +10748,7 @@
         <v>25</v>
       </c>
       <c r="Q116" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R116" t="s">
         <v>29</v>
@@ -10757,13 +10757,13 @@
         <v>36</v>
       </c>
       <c r="T116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U116">
         <v>1</v>
       </c>
       <c r="V116" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W116" t="s">
         <v>62</v>
@@ -10771,7 +10771,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
         <v>56</v>
@@ -10819,7 +10819,7 @@
         <v>25</v>
       </c>
       <c r="Q117" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R117" t="s">
         <v>29</v>
@@ -10828,13 +10828,13 @@
         <v>36</v>
       </c>
       <c r="T117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U117">
         <v>1</v>
       </c>
       <c r="V117" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W117" t="s">
         <v>62</v>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -10890,7 +10890,7 @@
         <v>25</v>
       </c>
       <c r="Q118" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R118" t="s">
         <v>29</v>
@@ -10899,13 +10899,13 @@
         <v>33</v>
       </c>
       <c r="T118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U118">
         <v>0.18404199700000001</v>
       </c>
       <c r="V118" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W118" t="s">
         <v>62</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
         <v>90</v>
@@ -10961,7 +10961,7 @@
         <v>25</v>
       </c>
       <c r="Q119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R119" t="s">
         <v>29</v>
@@ -10976,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="V119" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W119" t="s">
         <v>62</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B120" t="s">
         <v>56</v>
@@ -11032,7 +11032,7 @@
         <v>25</v>
       </c>
       <c r="Q120" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R120" t="s">
         <v>29</v>
@@ -11041,13 +11041,13 @@
         <v>33</v>
       </c>
       <c r="T120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U120">
         <v>0.21590158000000001</v>
       </c>
       <c r="V120" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W120" t="s">
         <v>62</v>
@@ -11055,7 +11055,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
         <v>56</v>
@@ -11103,7 +11103,7 @@
         <v>25</v>
       </c>
       <c r="Q121" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R121" t="s">
         <v>29</v>
@@ -11118,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="V121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W121" t="s">
         <v>62</v>
@@ -11126,7 +11126,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
         <v>56</v>
@@ -11174,7 +11174,7 @@
         <v>25</v>
       </c>
       <c r="Q122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R122" t="s">
         <v>29</v>
@@ -11189,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="V122" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W122" t="s">
         <v>62</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
         <v>56</v>
@@ -11245,7 +11245,7 @@
         <v>25</v>
       </c>
       <c r="Q123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R123" t="s">
         <v>29</v>
@@ -11254,13 +11254,13 @@
         <v>33</v>
       </c>
       <c r="T123" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U123">
         <v>0.21590158000000001</v>
       </c>
       <c r="V123" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W123" t="s">
         <v>62</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B124" t="s">
         <v>90</v>
@@ -11316,7 +11316,7 @@
         <v>25</v>
       </c>
       <c r="Q124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R124" t="s">
         <v>29</v>
@@ -11325,13 +11325,13 @@
         <v>36</v>
       </c>
       <c r="T124" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U124">
         <v>1</v>
       </c>
       <c r="V124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W124" t="s">
         <v>62</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B125" t="s">
         <v>81</v>
@@ -11387,7 +11387,7 @@
         <v>25</v>
       </c>
       <c r="Q125" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R125" t="s">
         <v>29</v>
@@ -11402,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="V125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W125" t="s">
         <v>62</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B126" t="s">
         <v>81</v>
@@ -11458,7 +11458,7 @@
         <v>25</v>
       </c>
       <c r="Q126" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R126" t="s">
         <v>29</v>
@@ -11467,13 +11467,13 @@
         <v>36</v>
       </c>
       <c r="T126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U126">
         <v>1</v>
       </c>
       <c r="V126" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W126" t="s">
         <v>62</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
         <v>98</v>
@@ -11529,7 +11529,7 @@
         <v>25</v>
       </c>
       <c r="Q127" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R127" t="s">
         <v>29</v>
@@ -11538,13 +11538,13 @@
         <v>36</v>
       </c>
       <c r="T127" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U127">
         <v>1</v>
       </c>
       <c r="V127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W127" t="s">
         <v>62</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
         <v>90</v>
@@ -11600,7 +11600,7 @@
         <v>25</v>
       </c>
       <c r="Q128" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R128" t="s">
         <v>29</v>
@@ -11615,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="V128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W128" t="s">
         <v>62</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B129" t="s">
         <v>90</v>
@@ -11671,7 +11671,7 @@
         <v>25</v>
       </c>
       <c r="Q129" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R129" t="s">
         <v>29</v>
@@ -11680,13 +11680,13 @@
         <v>36</v>
       </c>
       <c r="T129" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U129">
         <v>1</v>
       </c>
       <c r="V129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W129" t="s">
         <v>62</v>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
         <v>90</v>
@@ -11742,7 +11742,7 @@
         <v>25</v>
       </c>
       <c r="Q130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R130" t="s">
         <v>29</v>
@@ -11751,13 +11751,13 @@
         <v>33</v>
       </c>
       <c r="T130" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U130">
         <v>0.18404199700000001</v>
       </c>
       <c r="V130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W130" t="s">
         <v>62</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
         <v>85</v>
@@ -11813,7 +11813,7 @@
         <v>25</v>
       </c>
       <c r="Q131" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R131" t="s">
         <v>29</v>
@@ -11822,13 +11822,13 @@
         <v>33</v>
       </c>
       <c r="T131" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U131">
         <v>0.1713105</v>
       </c>
       <c r="V131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W131" t="s">
         <v>62</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
         <v>85</v>
@@ -11884,7 +11884,7 @@
         <v>25</v>
       </c>
       <c r="Q132" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R132" t="s">
         <v>29</v>
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="V132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W132" t="s">
         <v>62</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
         <v>85</v>
@@ -11955,7 +11955,7 @@
         <v>25</v>
       </c>
       <c r="Q133" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R133" t="s">
         <v>29</v>
@@ -11964,13 +11964,13 @@
         <v>36</v>
       </c>
       <c r="T133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U133">
         <v>1</v>
       </c>
       <c r="V133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W133" t="s">
         <v>62</v>
@@ -11978,7 +11978,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B134" t="s">
         <v>81</v>
@@ -12026,7 +12026,7 @@
         <v>25</v>
       </c>
       <c r="Q134" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R134" t="s">
         <v>29</v>
@@ -12035,13 +12035,13 @@
         <v>33</v>
       </c>
       <c r="T134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U134">
         <v>0.28368626699999999</v>
       </c>
       <c r="V134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W134" t="s">
         <v>62</v>
@@ -12049,7 +12049,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B135" t="s">
         <v>98</v>
@@ -12097,7 +12097,7 @@
         <v>25</v>
       </c>
       <c r="Q135" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R135" t="s">
         <v>29</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="V135" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W135" t="s">
         <v>62</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B136" t="s">
         <v>98</v>
@@ -12168,7 +12168,7 @@
         <v>25</v>
       </c>
       <c r="Q136" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R136" t="s">
         <v>29</v>
@@ -12177,13 +12177,13 @@
         <v>33</v>
       </c>
       <c r="T136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U136">
         <v>0.228999438</v>
       </c>
       <c r="V136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W136" t="s">
         <v>62</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
         <v>85</v>
@@ -12239,7 +12239,7 @@
         <v>25</v>
       </c>
       <c r="Q137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R137" t="s">
         <v>29</v>
@@ -12248,13 +12248,13 @@
         <v>36</v>
       </c>
       <c r="T137" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U137">
         <v>1</v>
       </c>
       <c r="V137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W137" t="s">
         <v>62</v>
@@ -12262,7 +12262,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B138" t="s">
         <v>102</v>
@@ -12310,7 +12310,7 @@
         <v>25</v>
       </c>
       <c r="Q138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R138" t="s">
         <v>29</v>
@@ -12319,13 +12319,13 @@
         <v>36</v>
       </c>
       <c r="T138" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U138">
         <v>1</v>
       </c>
       <c r="V138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W138" t="s">
         <v>62</v>
@@ -12333,7 +12333,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
         <v>81</v>
@@ -12381,7 +12381,7 @@
         <v>25</v>
       </c>
       <c r="Q139" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R139" t="s">
         <v>29</v>
@@ -12396,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="V139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W139" t="s">
         <v>62</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B140" t="s">
         <v>56</v>
@@ -12452,7 +12452,7 @@
         <v>25</v>
       </c>
       <c r="Q140" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R140" t="s">
         <v>29</v>
@@ -12461,13 +12461,13 @@
         <v>36</v>
       </c>
       <c r="T140" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U140">
         <v>1</v>
       </c>
       <c r="V140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W140" t="s">
         <v>62</v>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
         <v>70</v>
@@ -12523,7 +12523,7 @@
         <v>25</v>
       </c>
       <c r="Q141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R141" t="s">
         <v>29</v>
@@ -12532,13 +12532,13 @@
         <v>33</v>
       </c>
       <c r="T141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U141">
         <v>0.17310251600000001</v>
       </c>
       <c r="V141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W141" t="s">
         <v>62</v>
@@ -12546,7 +12546,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B142" t="s">
         <v>76</v>
@@ -12594,7 +12594,7 @@
         <v>25</v>
       </c>
       <c r="Q142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R142" t="s">
         <v>29</v>
@@ -12603,13 +12603,13 @@
         <v>36</v>
       </c>
       <c r="T142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U142">
         <v>1</v>
       </c>
       <c r="V142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W142" t="s">
         <v>62</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
@@ -12665,7 +12665,7 @@
         <v>25</v>
       </c>
       <c r="Q143" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R143" t="s">
         <v>29</v>
@@ -12674,13 +12674,13 @@
         <v>36</v>
       </c>
       <c r="T143" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U143">
         <v>1</v>
       </c>
       <c r="V143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W143" t="s">
         <v>62</v>
@@ -12688,7 +12688,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B144" t="s">
         <v>70</v>
@@ -12736,7 +12736,7 @@
         <v>25</v>
       </c>
       <c r="Q144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R144" t="s">
         <v>29</v>
@@ -12745,13 +12745,13 @@
         <v>36</v>
       </c>
       <c r="T144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U144">
         <v>1</v>
       </c>
       <c r="V144" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W144" t="s">
         <v>62</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
         <v>90</v>
@@ -12807,7 +12807,7 @@
         <v>25</v>
       </c>
       <c r="Q145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R145" t="s">
         <v>29</v>
@@ -12816,13 +12816,13 @@
         <v>36</v>
       </c>
       <c r="T145" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U145">
         <v>1</v>
       </c>
       <c r="V145" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W145" t="s">
         <v>62</v>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B146" t="s">
         <v>90</v>
@@ -12878,7 +12878,7 @@
         <v>25</v>
       </c>
       <c r="Q146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R146" t="s">
         <v>29</v>
@@ -12887,13 +12887,13 @@
         <v>33</v>
       </c>
       <c r="T146" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U146">
         <v>0.18404199700000001</v>
       </c>
       <c r="V146" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W146" t="s">
         <v>62</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B147" t="s">
         <v>90</v>
@@ -12949,7 +12949,7 @@
         <v>25</v>
       </c>
       <c r="Q147" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R147" t="s">
         <v>29</v>
@@ -12964,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="V147" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W147" t="s">
         <v>62</v>
@@ -12972,7 +12972,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B148" t="s">
         <v>85</v>
@@ -13020,7 +13020,7 @@
         <v>25</v>
       </c>
       <c r="Q148" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R148" t="s">
         <v>29</v>
@@ -13029,13 +13029,13 @@
         <v>33</v>
       </c>
       <c r="T148" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U148">
         <v>0.1713105</v>
       </c>
       <c r="V148" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W148" t="s">
         <v>62</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B149" t="s">
         <v>85</v>
@@ -13091,7 +13091,7 @@
         <v>25</v>
       </c>
       <c r="Q149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R149" t="s">
         <v>29</v>
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="V149" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W149" t="s">
         <v>62</v>
@@ -13114,7 +13114,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B150" t="s">
         <v>98</v>
@@ -13162,7 +13162,7 @@
         <v>25</v>
       </c>
       <c r="Q150" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R150" t="s">
         <v>29</v>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="V150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W150" t="s">
         <v>62</v>
@@ -13185,7 +13185,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
         <v>94</v>
@@ -13233,7 +13233,7 @@
         <v>25</v>
       </c>
       <c r="Q151" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R151" t="s">
         <v>29</v>
@@ -13242,13 +13242,13 @@
         <v>33</v>
       </c>
       <c r="T151" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U151">
         <v>0.21055177</v>
       </c>
       <c r="V151" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W151" t="s">
         <v>62</v>
@@ -13256,7 +13256,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B152" t="s">
         <v>76</v>
@@ -13304,7 +13304,7 @@
         <v>25</v>
       </c>
       <c r="Q152" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R152" t="s">
         <v>29</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="V152" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W152" t="s">
         <v>62</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s">
         <v>70</v>
@@ -13375,7 +13375,7 @@
         <v>25</v>
       </c>
       <c r="Q153" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R153" t="s">
         <v>29</v>
@@ -13390,7 +13390,7 @@
         <v>1</v>
       </c>
       <c r="V153" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W153" t="s">
         <v>62</v>
@@ -13398,7 +13398,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
         <v>102</v>
@@ -13446,7 +13446,7 @@
         <v>25</v>
       </c>
       <c r="Q154" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R154" t="s">
         <v>29</v>
@@ -13461,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="V154" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W154" t="s">
         <v>62</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B155" t="s">
         <v>106</v>
@@ -13517,7 +13517,7 @@
         <v>25</v>
       </c>
       <c r="Q155" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R155" t="s">
         <v>29</v>
@@ -13526,13 +13526,13 @@
         <v>36</v>
       </c>
       <c r="T155" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U155">
         <v>1</v>
       </c>
       <c r="V155" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W155" t="s">
         <v>62</v>
@@ -13540,7 +13540,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B156" t="s">
         <v>56</v>
@@ -13588,7 +13588,7 @@
         <v>25</v>
       </c>
       <c r="Q156" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R156" t="s">
         <v>29</v>
@@ -13597,13 +13597,13 @@
         <v>36</v>
       </c>
       <c r="T156" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U156">
         <v>1</v>
       </c>
       <c r="V156" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W156" t="s">
         <v>62</v>
@@ -13611,7 +13611,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B157" t="s">
         <v>56</v>
@@ -13659,7 +13659,7 @@
         <v>25</v>
       </c>
       <c r="Q157" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R157" t="s">
         <v>29</v>
@@ -13668,13 +13668,13 @@
         <v>33</v>
       </c>
       <c r="T157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U157">
         <v>0.21590158000000001</v>
       </c>
       <c r="V157" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W157" t="s">
         <v>62</v>
@@ -13682,7 +13682,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
         <v>102</v>
@@ -13730,7 +13730,7 @@
         <v>25</v>
       </c>
       <c r="Q158" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R158" t="s">
         <v>29</v>
@@ -13739,13 +13739,13 @@
         <v>33</v>
       </c>
       <c r="T158" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U158">
         <v>0.16393429600000001</v>
       </c>
       <c r="V158" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W158" t="s">
         <v>62</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
         <v>64</v>
@@ -13801,7 +13801,7 @@
         <v>25</v>
       </c>
       <c r="Q159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R159" t="s">
         <v>29</v>
@@ -13816,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="V159" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W159" t="s">
         <v>62</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B160" t="s">
         <v>64</v>
@@ -13872,7 +13872,7 @@
         <v>25</v>
       </c>
       <c r="Q160" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R160" t="s">
         <v>29</v>
@@ -13881,13 +13881,13 @@
         <v>33</v>
       </c>
       <c r="T160" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U160">
         <v>0.34978502700000003</v>
       </c>
       <c r="V160" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W160" t="s">
         <v>62</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B161" t="s">
         <v>56</v>
@@ -13943,7 +13943,7 @@
         <v>25</v>
       </c>
       <c r="Q161" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R161" t="s">
         <v>29</v>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="V161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W161" t="s">
         <v>62</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B162" t="s">
         <v>98</v>
@@ -14014,7 +14014,7 @@
         <v>25</v>
       </c>
       <c r="Q162" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R162" t="s">
         <v>29</v>
@@ -14023,13 +14023,13 @@
         <v>36</v>
       </c>
       <c r="T162" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U162">
         <v>1</v>
       </c>
       <c r="V162" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W162" t="s">
         <v>62</v>
@@ -14037,7 +14037,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B163" t="s">
         <v>56</v>
@@ -14085,7 +14085,7 @@
         <v>25</v>
       </c>
       <c r="Q163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R163" t="s">
         <v>29</v>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="V163" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W163" t="s">
         <v>62</v>
@@ -14108,7 +14108,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
         <v>106</v>
@@ -14156,7 +14156,7 @@
         <v>25</v>
       </c>
       <c r="Q164" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R164" t="s">
         <v>29</v>
@@ -14165,13 +14165,13 @@
         <v>33</v>
       </c>
       <c r="T164" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U164">
         <v>0.43995505800000001</v>
       </c>
       <c r="V164" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W164" t="s">
         <v>62</v>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B165" t="s">
         <v>94</v>
@@ -14227,7 +14227,7 @@
         <v>25</v>
       </c>
       <c r="Q165" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R165" t="s">
         <v>29</v>
@@ -14242,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="V165" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W165" t="s">
         <v>62</v>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B166" t="s">
         <v>64</v>
@@ -14298,7 +14298,7 @@
         <v>25</v>
       </c>
       <c r="Q166" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R166" t="s">
         <v>29</v>
@@ -14307,13 +14307,13 @@
         <v>36</v>
       </c>
       <c r="T166" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U166">
         <v>1</v>
       </c>
       <c r="V166" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W166" t="s">
         <v>62</v>
@@ -14321,7 +14321,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B167" t="s">
         <v>81</v>
@@ -14369,7 +14369,7 @@
         <v>25</v>
       </c>
       <c r="Q167" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R167" t="s">
         <v>29</v>
@@ -14378,13 +14378,13 @@
         <v>33</v>
       </c>
       <c r="T167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U167">
         <v>0.28368626699999999</v>
       </c>
       <c r="V167" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W167" t="s">
         <v>62</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B168" t="s">
         <v>76</v>
@@ -14440,7 +14440,7 @@
         <v>25</v>
       </c>
       <c r="Q168" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R168" t="s">
         <v>29</v>
@@ -14449,13 +14449,13 @@
         <v>33</v>
       </c>
       <c r="T168" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U168">
         <v>0.31817611600000001</v>
       </c>
       <c r="V168" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W168" t="s">
         <v>62</v>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
         <v>56</v>
@@ -14511,7 +14511,7 @@
         <v>25</v>
       </c>
       <c r="Q169" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R169" t="s">
         <v>29</v>
@@ -14520,13 +14520,13 @@
         <v>33</v>
       </c>
       <c r="T169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U169">
         <v>0.21590158000000001</v>
       </c>
       <c r="V169" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W169" t="s">
         <v>62</v>
@@ -14534,7 +14534,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B170" t="s">
         <v>106</v>
@@ -14582,7 +14582,7 @@
         <v>25</v>
       </c>
       <c r="Q170" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R170" t="s">
         <v>29</v>
@@ -14597,7 +14597,7 @@
         <v>1</v>
       </c>
       <c r="V170" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W170" t="s">
         <v>62</v>
@@ -14605,7 +14605,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B171" t="s">
         <v>81</v>
@@ -14653,7 +14653,7 @@
         <v>25</v>
       </c>
       <c r="Q171" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R171" t="s">
         <v>29</v>
@@ -14662,13 +14662,13 @@
         <v>36</v>
       </c>
       <c r="T171" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U171">
         <v>1</v>
       </c>
       <c r="V171" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W171" t="s">
         <v>62</v>
@@ -14676,7 +14676,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B172" t="s">
         <v>98</v>
@@ -14724,7 +14724,7 @@
         <v>25</v>
       </c>
       <c r="Q172" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R172" t="s">
         <v>29</v>
@@ -14733,13 +14733,13 @@
         <v>33</v>
       </c>
       <c r="T172" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U172">
         <v>0.228999438</v>
       </c>
       <c r="V172" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W172" t="s">
         <v>62</v>
@@ -14747,7 +14747,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B173" t="s">
         <v>76</v>
@@ -14795,7 +14795,7 @@
         <v>25</v>
       </c>
       <c r="Q173" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R173" t="s">
         <v>29</v>
@@ -14804,13 +14804,13 @@
         <v>36</v>
       </c>
       <c r="T173" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U173">
         <v>1</v>
       </c>
       <c r="V173" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W173" t="s">
         <v>62</v>
@@ -14818,7 +14818,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B174" t="s">
         <v>70</v>
@@ -14866,7 +14866,7 @@
         <v>25</v>
       </c>
       <c r="Q174" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R174" t="s">
         <v>29</v>
@@ -14875,13 +14875,13 @@
         <v>33</v>
       </c>
       <c r="T174" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U174">
         <v>0.17310251600000001</v>
       </c>
       <c r="V174" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W174" t="s">
         <v>62</v>
@@ -14889,7 +14889,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
         <v>70</v>
@@ -14937,7 +14937,7 @@
         <v>25</v>
       </c>
       <c r="Q175" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R175" t="s">
         <v>29</v>
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="V175" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W175" t="s">
         <v>62</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
         <v>90</v>
@@ -15008,7 +15008,7 @@
         <v>25</v>
       </c>
       <c r="Q176" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R176" t="s">
         <v>29</v>
@@ -15017,13 +15017,13 @@
         <v>36</v>
       </c>
       <c r="T176" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U176">
         <v>1</v>
       </c>
       <c r="V176" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W176" t="s">
         <v>62</v>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B177" t="s">
         <v>90</v>
@@ -15079,7 +15079,7 @@
         <v>25</v>
       </c>
       <c r="Q177" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R177" t="s">
         <v>29</v>
@@ -15088,13 +15088,13 @@
         <v>33</v>
       </c>
       <c r="T177" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U177">
         <v>0.18404199700000001</v>
       </c>
       <c r="V177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W177" t="s">
         <v>62</v>
@@ -15102,7 +15102,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
         <v>90</v>
@@ -15150,7 +15150,7 @@
         <v>25</v>
       </c>
       <c r="Q178" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R178" t="s">
         <v>29</v>
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="V178" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W178" t="s">
         <v>62</v>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
         <v>85</v>
@@ -15221,7 +15221,7 @@
         <v>25</v>
       </c>
       <c r="Q179" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R179" t="s">
         <v>29</v>
@@ -15230,13 +15230,13 @@
         <v>33</v>
       </c>
       <c r="T179" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U179">
         <v>0.1713105</v>
       </c>
       <c r="V179" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W179" t="s">
         <v>62</v>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
         <v>85</v>
@@ -15292,7 +15292,7 @@
         <v>25</v>
       </c>
       <c r="Q180" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R180" t="s">
         <v>29</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="V180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W180" t="s">
         <v>62</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
         <v>102</v>
@@ -15363,7 +15363,7 @@
         <v>25</v>
       </c>
       <c r="Q181" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R181" t="s">
         <v>29</v>
@@ -15372,13 +15372,13 @@
         <v>33</v>
       </c>
       <c r="T181" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U181">
         <v>0.16393429600000001</v>
       </c>
       <c r="V181" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W181" t="s">
         <v>62</v>
@@ -15386,7 +15386,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>76</v>
@@ -15434,7 +15434,7 @@
         <v>25</v>
       </c>
       <c r="Q182" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R182" t="s">
         <v>29</v>
@@ -15443,13 +15443,13 @@
         <v>33</v>
       </c>
       <c r="T182" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U182">
         <v>0.31817611600000001</v>
       </c>
       <c r="V182" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W182" t="s">
         <v>62</v>
@@ -15457,7 +15457,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>102</v>
@@ -15505,7 +15505,7 @@
         <v>25</v>
       </c>
       <c r="Q183" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R183" t="s">
         <v>29</v>
@@ -15514,13 +15514,13 @@
         <v>36</v>
       </c>
       <c r="T183" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U183">
         <v>1</v>
       </c>
       <c r="V183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W183" t="s">
         <v>62</v>
@@ -15528,7 +15528,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
         <v>76</v>
@@ -15576,7 +15576,7 @@
         <v>25</v>
       </c>
       <c r="Q184" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R184" t="s">
         <v>29</v>
@@ -15591,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="V184" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W184" t="s">
         <v>62</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
         <v>85</v>
@@ -15647,7 +15647,7 @@
         <v>25</v>
       </c>
       <c r="Q185" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R185" t="s">
         <v>29</v>
@@ -15656,13 +15656,13 @@
         <v>36</v>
       </c>
       <c r="T185" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U185">
         <v>1</v>
       </c>
       <c r="V185" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W185" t="s">
         <v>62</v>
@@ -15670,7 +15670,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B186" t="s">
         <v>102</v>
@@ -15718,7 +15718,7 @@
         <v>25</v>
       </c>
       <c r="Q186" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R186" t="s">
         <v>29</v>
@@ -15733,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="V186" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W186" t="s">
         <v>62</v>
@@ -15741,7 +15741,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B187" t="s">
         <v>70</v>
@@ -15789,7 +15789,7 @@
         <v>25</v>
       </c>
       <c r="Q187" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R187" t="s">
         <v>29</v>
@@ -15798,13 +15798,13 @@
         <v>36</v>
       </c>
       <c r="T187" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U187">
         <v>1</v>
       </c>
       <c r="V187" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W187" t="s">
         <v>62</v>
@@ -15823,26 +15823,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C1A92D-FC85-4A41-97EE-0F4155DEFAFA}">
   <dimension ref="A1:X187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -15858,19 +15858,19 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
